--- a/data/trans_dic/P70C2_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70C2_R_2023-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01804435620359779</v>
+        <v>0.0128329413969071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006688272030525076</v>
+        <v>0.006729134436161457</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07467303748518617</v>
+        <v>0.07467303748518618</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1527128781994219</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04229614661653155</v>
+        <v>0.04353744955775059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1038334808363186</v>
+        <v>0.1076242146923609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07868965409961275</v>
+        <v>0.0777315163924006</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1208055868383956</v>
+        <v>0.1189503136534002</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2082476486532805</v>
+        <v>0.215505248853896</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1421019797399548</v>
+        <v>0.1426734785815569</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08853445131110763</v>
+        <v>0.08828411726664696</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09061384083119507</v>
+        <v>0.08595332096411427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1028113888427654</v>
+        <v>0.1039303050760964</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.199748677539069</v>
+        <v>0.1966604359477616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1938815450020617</v>
+        <v>0.1895207903173287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1747998301531536</v>
+        <v>0.1837348595081501</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1536650200958982</v>
+        <v>0.1536650200958983</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.1710423833081637</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09667167077427041</v>
+        <v>0.09372759282358759</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1160858490616727</v>
+        <v>0.1182701855032302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.117471764281711</v>
+        <v>0.122326150785506</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2368512345968747</v>
+        <v>0.2321582820546947</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2409217669180082</v>
+        <v>0.242763455125152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2158639730375822</v>
+        <v>0.2160351139502686</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005818976288909849</v>
+        <v>0.005769827264508389</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003956721391753767</v>
+        <v>0.003941417411613645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008191762294070724</v>
+        <v>0.008966313248176183</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0638179906011036</v>
+        <v>0.06505144221666224</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03826730274664953</v>
+        <v>0.03588783307382294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03843175304214528</v>
+        <v>0.04433983177604897</v>
       </c>
     </row>
     <row r="19">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1928219988660324</v>
+        <v>0.1928219988660325</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.08849477218172867</v>
+        <v>0.08849477218172869</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.151873054045131</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1351279884814878</v>
+        <v>0.1335214715019719</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04991465380171536</v>
+        <v>0.05261482558721101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1112257762162931</v>
+        <v>0.1153216761836186</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2586213235449681</v>
+        <v>0.2563897899523142</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1426475087507178</v>
+        <v>0.1478156812295232</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2013376242957901</v>
+        <v>0.1958519224580843</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.09303134701558466</v>
+        <v>0.09303134701558467</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.1134031043715814</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06376209318641493</v>
+        <v>0.06245773953485646</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08900920182386567</v>
+        <v>0.08866334731437558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08314199914350125</v>
+        <v>0.08073792253807749</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1337852150085319</v>
+        <v>0.1292732114291588</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1472078495624299</v>
+        <v>0.1477591923044242</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1266150903257599</v>
+        <v>0.1268646439739576</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03186479079465338</v>
+        <v>0.03180317553965727</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04360922459270951</v>
+        <v>0.04234381948984996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04215607796791818</v>
+        <v>0.04133093272033662</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07755741205058969</v>
+        <v>0.08284976161231125</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09755879619249777</v>
+        <v>0.09349289932645971</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07503809088759944</v>
+        <v>0.07516077171177601</v>
       </c>
     </row>
     <row r="28">
@@ -1003,7 +1003,7 @@
         <v>0.08308421890987243</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.09617176205466348</v>
+        <v>0.09617176205466346</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.08883071719958008</v>
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06902639077040104</v>
+        <v>0.06947603780450221</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08248319215441378</v>
+        <v>0.08243774752596328</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07972773592581106</v>
+        <v>0.07949243629260414</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09963981188708343</v>
+        <v>0.09777347825544305</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1115974798695459</v>
+        <v>0.1123175601413796</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09905498262808238</v>
+        <v>0.1006158314273172</v>
       </c>
     </row>
     <row r="31">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2730</v>
+        <v>1941</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2350</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="8">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10691</v>
+        <v>11005</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17999</v>
+        <v>18657</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33530</v>
+        <v>33122</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30535</v>
+        <v>30066</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36100</v>
+        <v>37358</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>60551</v>
+        <v>60794</v>
       </c>
     </row>
     <row r="12">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13130</v>
+        <v>13093</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10901</v>
+        <v>10340</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27615</v>
+        <v>27916</v>
       </c>
     </row>
     <row r="15">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29623</v>
+        <v>29165</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23324</v>
+        <v>22799</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46951</v>
+        <v>49351</v>
       </c>
     </row>
     <row r="16">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20266</v>
+        <v>19649</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20522</v>
+        <v>20908</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45394</v>
+        <v>47269</v>
       </c>
     </row>
     <row r="19">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>49653</v>
+        <v>48669</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42591</v>
+        <v>42917</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83414</v>
+        <v>83481</v>
       </c>
     </row>
     <row r="20">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2066</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="23">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8582</v>
+        <v>8748</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4507</v>
+        <v>4227</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9695</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="24">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18078</v>
+        <v>17863</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4314</v>
+        <v>4548</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>24494</v>
+        <v>25396</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>34599</v>
+        <v>34300</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12330</v>
+        <v>12777</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>44338</v>
+        <v>43130</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24385</v>
+        <v>23886</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>31830</v>
+        <v>31706</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>61528</v>
+        <v>59749</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>51164</v>
+        <v>49439</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>52641</v>
+        <v>52839</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>93699</v>
+        <v>93884</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14306</v>
+        <v>14278</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>13602</v>
+        <v>13208</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>32076</v>
+        <v>31448</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>34820</v>
+        <v>37196</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>30430</v>
+        <v>29162</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>57095</v>
+        <v>57188</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>131868</v>
+        <v>132727</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>123349</v>
+        <v>123281</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>271541</v>
+        <v>270739</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>190352</v>
+        <v>186787</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>166888</v>
+        <v>167965</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>337367</v>
+        <v>342683</v>
       </c>
     </row>
     <row r="40">
